--- a/artfynd/A 53766-2025 artfynd.xlsx
+++ b/artfynd/A 53766-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>129763755</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>129763760</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>129763748</v>
       </c>
       <c r="B4" t="n">
-        <v>92763</v>
+        <v>92767</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>129763750</v>
       </c>
       <c r="B5" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>129763756</v>
       </c>
       <c r="B6" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>129763747</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>129763757</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>129763751</v>
       </c>
       <c r="B9" t="n">
-        <v>96229</v>
+        <v>96233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>129763749</v>
       </c>
       <c r="B10" t="n">
-        <v>106098</v>
+        <v>106102</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>129763754</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>129763753</v>
       </c>
       <c r="B12" t="n">
-        <v>92526</v>
+        <v>92530</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>129763741</v>
       </c>
       <c r="B13" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>129763746</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 53766-2025 artfynd.xlsx
+++ b/artfynd/A 53766-2025 artfynd.xlsx
@@ -1539,7 +1539,7 @@
         <v>129763749</v>
       </c>
       <c r="B10" t="n">
-        <v>106102</v>
+        <v>106109</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/artfynd/A 53766-2025 artfynd.xlsx
+++ b/artfynd/A 53766-2025 artfynd.xlsx
@@ -1539,7 +1539,7 @@
         <v>129763749</v>
       </c>
       <c r="B10" t="n">
-        <v>106109</v>
+        <v>106112</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/artfynd/A 53766-2025 artfynd.xlsx
+++ b/artfynd/A 53766-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>129763755</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>129763760</v>
       </c>
       <c r="B3" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>129763748</v>
       </c>
       <c r="B4" t="n">
-        <v>92767</v>
+        <v>92768</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>129763750</v>
       </c>
       <c r="B5" t="n">
-        <v>101215</v>
+        <v>101216</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>129763756</v>
       </c>
       <c r="B6" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>129763747</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>129763757</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>129763751</v>
       </c>
       <c r="B9" t="n">
-        <v>96233</v>
+        <v>96234</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>129763749</v>
       </c>
       <c r="B10" t="n">
-        <v>106112</v>
+        <v>106113</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>129763754</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>129763753</v>
       </c>
       <c r="B12" t="n">
-        <v>92530</v>
+        <v>92531</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>129763741</v>
       </c>
       <c r="B13" t="n">
-        <v>101215</v>
+        <v>101216</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>129763746</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
